--- a/Astral/in/DataTest.xlsx
+++ b/Astral/in/DataTest.xlsx
@@ -1167,7 +1167,7 @@
 même si vous semblez extraverti, vous êtes une personne pudique avec une vie secrète. Vous évitez d’exprimer votre puissance, mais vous êtes pourtant fasciné par tout ce qui se passe en coulisses ou au-dessous de la surface, surtout dans votre propre psyché. L’exploration de votre Inconscient et de vos rêves vous apporte la transformation.</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>EN</t>
   </si>
 </sst>
 </file>
@@ -1511,9 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
